--- a/biology/Zoologie/Cyclocarcina/Cyclocarcina.xlsx
+++ b/biology/Zoologie/Cyclocarcina/Cyclocarcina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclocarcina est un genre d'araignées aranéomorphes de la famille des Nesticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclocarcina est un genre d'araignées aranéomorphes de la famille des Nesticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Japon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Japon.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 19/09/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 19/09/2023) :
 Cyclocarcina floronoides Kishida, 1942
 Cyclocarcina linyphoides (Komatsu, 1960)</t>
         </is>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Kishida en 1942 dans les Linyphiidae. Il est placé en synonymie avec Nesticus par Yaginuma en 1960[2]. Il est relevé de synonymie par Lehtinen et Saaristo en 1980[3].
-Sunitorypha[4] a été placé en synonymie par Lehtinen et Saaristo en 1980[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Kishida en 1942 dans les Linyphiidae. Il est placé en synonymie avec Nesticus par Yaginuma en 1960. Il est relevé de synonymie par Lehtinen et Saaristo en 1980.
+Sunitorypha a été placé en synonymie par Lehtinen et Saaristo en 1980.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Komatsu, 1942 : « 最勝洞産蜘蛛 (Spiders from Saisho-do caves). » Acta Arachnologica, vol. 7, no 2, p. 54-70.</t>
         </is>
